--- a/next-bi-backend/src/main/resources/网站数据.xlsx
+++ b/next-bi-backend/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\nexura-next-bi\next-bi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180C763-FB86-4C13-B008-BA83AC1A32A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EE6546-B5FD-4BB7-B136-3D9476C745CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -34,21 +34,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -58,28 +66,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,13 +95,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,48 +416,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>45628</v>
+      </c>
       <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B5">
+        <v>1003</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B6">
+        <v>1004</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B7">
+        <v>1005</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B8">
+        <v>1006</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B9">
+        <v>1007</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B10">
+        <v>1008</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B11">
+        <v>1009</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B12">
+        <v>1010</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B13">
+        <v>1011</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B14">
+        <v>1012</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B15">
+        <v>1013</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B16">
+        <v>1014</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B17">
+        <v>1015</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B20">
+        <v>2000</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B21">
+        <v>2300</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B22">
+        <v>2000</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B23">
+        <v>2010</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B24">
+        <v>2000</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B25">
+        <v>2000</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B26">
+        <v>2000</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B27">
+        <v>2500</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B28">
+        <v>1990</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B29">
+        <v>2400</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B30">
+        <v>3000</v>
+      </c>
+      <c r="C30">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
+      <c r="D30">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B31">
+        <v>3001</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B32">
+        <v>3002</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>30005</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>